--- a/team_results/jukurit/xlsx_jukurit_1_played_games_data.xlsx
+++ b/team_results/jukurit/xlsx_jukurit_1_played_games_data.xlsx
@@ -475,28 +475,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-09-11</t>
+          <t>2021-09-10</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>jukurit</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>kalpa</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>jukurit</t>
-        </is>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -574,7 +574,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>47</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>49</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
         <v>85</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
         <v>90</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="n">
         <v>116</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="n">
         <v>117</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
         <v>134</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
         <v>137</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
         <v>246</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
         <v>250</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
         <v>268</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
         <v>274</v>

--- a/team_results/jukurit/xlsx_jukurit_1_played_games_data.xlsx
+++ b/team_results/jukurit/xlsx_jukurit_1_played_games_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,7 +744,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
         <v>80</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="n">
         <v>85</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
         <v>116</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
         <v>117</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="n">
         <v>182</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="n">
         <v>185</v>
@@ -2097,6 +2097,74 @@
         <v>4</v>
       </c>
       <c r="H49" t="inlineStr">
+        <is>
+          <t>jukurit</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>400</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>jukurit</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>karpat</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>karpat</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>408</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2022-03-04</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>jyp</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>jukurit</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="inlineStr">
         <is>
           <t>jukurit</t>
         </is>
